--- a/data/pca/factorExposure/factorExposure_2017-11-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02301069897441893</v>
+        <v>-0.01437956187120698</v>
       </c>
       <c r="C2">
-        <v>-0.002177216019129918</v>
+        <v>-0.03775301004625893</v>
       </c>
       <c r="D2">
-        <v>-0.007315898318216608</v>
+        <v>-0.02830329499751258</v>
       </c>
       <c r="E2">
-        <v>0.01252283403869616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02882376929702476</v>
+      </c>
+      <c r="F2">
+        <v>-0.03239964402733827</v>
+      </c>
+      <c r="G2">
+        <v>-0.01651664040965248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01158030308563406</v>
+        <v>-0.05437982748364414</v>
       </c>
       <c r="C3">
-        <v>0.04934649980032894</v>
+        <v>-0.07826769536536006</v>
       </c>
       <c r="D3">
-        <v>0.01763381976490113</v>
+        <v>-0.01409441965855166</v>
       </c>
       <c r="E3">
-        <v>-0.02422423626520023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.07960063006120231</v>
+      </c>
+      <c r="F3">
+        <v>-0.05946040896776618</v>
+      </c>
+      <c r="G3">
+        <v>-0.06749281428499625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02197335437639195</v>
+        <v>-0.05549954860097187</v>
       </c>
       <c r="C4">
-        <v>0.03339528021125461</v>
+        <v>-0.06419839922191822</v>
       </c>
       <c r="D4">
-        <v>-0.04327808656256669</v>
+        <v>-0.0220628476736658</v>
       </c>
       <c r="E4">
-        <v>0.01863576706694382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0001649997098344637</v>
+      </c>
+      <c r="F4">
+        <v>-0.01448684454487006</v>
+      </c>
+      <c r="G4">
+        <v>-0.041130568188383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01486499831026972</v>
+        <v>-0.0321011275473525</v>
       </c>
       <c r="C6">
-        <v>0.05139943604422469</v>
+        <v>-0.05398167601899371</v>
       </c>
       <c r="D6">
-        <v>-0.04344340936313258</v>
+        <v>-0.01622475141738327</v>
       </c>
       <c r="E6">
-        <v>0.03866055520472514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.007114203256452218</v>
+      </c>
+      <c r="F6">
+        <v>-0.01923669956439651</v>
+      </c>
+      <c r="G6">
+        <v>-0.02366928075693484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01062600638159665</v>
+        <v>-0.01965297006092982</v>
       </c>
       <c r="C7">
-        <v>0.02493279817271869</v>
+        <v>-0.03738451872865898</v>
       </c>
       <c r="D7">
-        <v>-0.05094074020533649</v>
+        <v>-0.01243531494812086</v>
       </c>
       <c r="E7">
-        <v>-0.04748448110902761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01269156535326536</v>
+      </c>
+      <c r="F7">
+        <v>-0.009931929242335684</v>
+      </c>
+      <c r="G7">
+        <v>-0.07704874978300598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0005678627065576625</v>
+        <v>0.002955584153794126</v>
       </c>
       <c r="C8">
-        <v>-0.01435106673402064</v>
+        <v>-0.01460783013975753</v>
       </c>
       <c r="D8">
-        <v>-0.02295804342527407</v>
+        <v>-0.003910227683010007</v>
       </c>
       <c r="E8">
-        <v>0.008994000980543431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01786235960069381</v>
+      </c>
+      <c r="F8">
+        <v>-0.02038274272327012</v>
+      </c>
+      <c r="G8">
+        <v>-0.02733147043306536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01407368519211646</v>
+        <v>-0.02856512467109458</v>
       </c>
       <c r="C9">
-        <v>0.02597855944295507</v>
+        <v>-0.04323410525027029</v>
       </c>
       <c r="D9">
-        <v>-0.02428161083722462</v>
+        <v>-0.01540341183024022</v>
       </c>
       <c r="E9">
-        <v>0.01047274755607215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.00519349728314608</v>
+      </c>
+      <c r="F9">
+        <v>-0.01816158887474678</v>
+      </c>
+      <c r="G9">
+        <v>-0.03301668498883414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.007004940777196973</v>
+        <v>-0.08867352231036764</v>
       </c>
       <c r="C10">
-        <v>0.09007909158349199</v>
+        <v>0.1853683982668798</v>
       </c>
       <c r="D10">
-        <v>0.1156249028940364</v>
+        <v>0.0188513881441611</v>
       </c>
       <c r="E10">
-        <v>-0.1003859450302478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01913103640501817</v>
+      </c>
+      <c r="F10">
+        <v>0.01662923323667467</v>
+      </c>
+      <c r="G10">
+        <v>-0.03803315308904261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.000172268694403145</v>
+        <v>-0.03615966101332362</v>
       </c>
       <c r="C11">
-        <v>0.01852914315916646</v>
+        <v>-0.05271303528232549</v>
       </c>
       <c r="D11">
-        <v>-0.01984644586576081</v>
+        <v>-0.001240272891338618</v>
       </c>
       <c r="E11">
-        <v>0.02960975815729178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.001369972442811959</v>
+      </c>
+      <c r="F11">
+        <v>-0.02397907609426418</v>
+      </c>
+      <c r="G11">
+        <v>-0.01404142439391398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00508840951075115</v>
+        <v>-0.03327658473442446</v>
       </c>
       <c r="C12">
-        <v>0.02684178041983755</v>
+        <v>-0.04483911624860265</v>
       </c>
       <c r="D12">
-        <v>-0.02603069755293122</v>
+        <v>-0.00542909232751801</v>
       </c>
       <c r="E12">
-        <v>0.02684044324512765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.008308437533521656</v>
+      </c>
+      <c r="F12">
+        <v>-0.006566668975934472</v>
+      </c>
+      <c r="G12">
+        <v>-0.01767795014679226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02086066569818673</v>
+        <v>-0.01238615667314387</v>
       </c>
       <c r="C13">
-        <v>0.01177350111252469</v>
+        <v>-0.03384244255507649</v>
       </c>
       <c r="D13">
-        <v>-0.003533297755825997</v>
+        <v>-0.02463521124424723</v>
       </c>
       <c r="E13">
-        <v>0.008990289816319564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02452228749526825</v>
+      </c>
+      <c r="F13">
+        <v>-0.02299366423027998</v>
+      </c>
+      <c r="G13">
+        <v>-0.030165866304274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006749830917055093</v>
+        <v>-0.00714988730689276</v>
       </c>
       <c r="C14">
-        <v>0.01521374924927815</v>
+        <v>-0.02567740945001418</v>
       </c>
       <c r="D14">
-        <v>-0.01493924144502333</v>
+        <v>-0.008536804379590118</v>
       </c>
       <c r="E14">
-        <v>-0.005133593668062919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.00407693523935305</v>
+      </c>
+      <c r="F14">
+        <v>-0.002985396054960512</v>
+      </c>
+      <c r="G14">
+        <v>-0.03936488256159058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0001435452144294344</v>
+        <v>-0.03241900683476096</v>
       </c>
       <c r="C16">
-        <v>0.02281070977682707</v>
+        <v>-0.04293732120359105</v>
       </c>
       <c r="D16">
-        <v>-0.02833525886926213</v>
+        <v>-0.0008939749698282268</v>
       </c>
       <c r="E16">
-        <v>0.02907536855757424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.000802208263768284</v>
+      </c>
+      <c r="F16">
+        <v>-0.01034634534773423</v>
+      </c>
+      <c r="G16">
+        <v>-0.01747654907227321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01142644408650011</v>
+        <v>-0.02934956927843747</v>
       </c>
       <c r="C19">
-        <v>0.01789769922072002</v>
+        <v>-0.05506401748033543</v>
       </c>
       <c r="D19">
-        <v>-0.02316832370202827</v>
+        <v>-0.01537757271540889</v>
       </c>
       <c r="E19">
-        <v>0.01904839951864468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.03994822626361215</v>
+      </c>
+      <c r="F19">
+        <v>-0.03662912981120478</v>
+      </c>
+      <c r="G19">
+        <v>-0.03744187361469425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.009625054271086468</v>
+        <v>-0.01130077796018626</v>
       </c>
       <c r="C20">
-        <v>0.002425849672148295</v>
+        <v>-0.03477679520613679</v>
       </c>
       <c r="D20">
-        <v>-0.003768048303853013</v>
+        <v>-0.01303924867160905</v>
       </c>
       <c r="E20">
-        <v>-0.002439686632302845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02224747717590692</v>
+      </c>
+      <c r="F20">
+        <v>-0.005686050461704745</v>
+      </c>
+      <c r="G20">
+        <v>-0.029783202149273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01336830213920857</v>
+        <v>-0.01256034632347773</v>
       </c>
       <c r="C21">
-        <v>0.03200537496876422</v>
+        <v>-0.03343447865492773</v>
       </c>
       <c r="D21">
-        <v>-0.02029140188960616</v>
+        <v>-0.0160834778474265</v>
       </c>
       <c r="E21">
-        <v>-0.007099015610306369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0297906579771839</v>
+      </c>
+      <c r="F21">
+        <v>-0.02056618004752738</v>
+      </c>
+      <c r="G21">
+        <v>-0.05373460567092057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.00439443850955651</v>
+        <v>-0.02712423554953815</v>
       </c>
       <c r="C24">
-        <v>0.02009249327382688</v>
+        <v>-0.04603983719924615</v>
       </c>
       <c r="D24">
-        <v>-0.02412403231277115</v>
+        <v>-0.006232520163046542</v>
       </c>
       <c r="E24">
-        <v>0.02634188526737881</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005066992943811906</v>
+      </c>
+      <c r="F24">
+        <v>-0.0198134136843152</v>
+      </c>
+      <c r="G24">
+        <v>-0.01692801843068007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01060447763879824</v>
+        <v>-0.04406116427863298</v>
       </c>
       <c r="C25">
-        <v>0.03340481502973186</v>
+        <v>-0.05301739630835001</v>
       </c>
       <c r="D25">
-        <v>-0.02299161901673416</v>
+        <v>-0.01007830133261164</v>
       </c>
       <c r="E25">
-        <v>0.02828630717261651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01244266015974468</v>
+      </c>
+      <c r="F25">
+        <v>-0.01442393188929902</v>
+      </c>
+      <c r="G25">
+        <v>-0.02220639124918325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02259773785173359</v>
+        <v>-0.008717139404613333</v>
       </c>
       <c r="C26">
-        <v>0.002562537258378585</v>
+        <v>-0.008601746902175559</v>
       </c>
       <c r="D26">
-        <v>-0.002099803463051134</v>
+        <v>-0.02360597116444537</v>
       </c>
       <c r="E26">
-        <v>-0.008266601993437199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.008674724396962588</v>
+      </c>
+      <c r="F26">
+        <v>-0.005555050805261429</v>
+      </c>
+      <c r="G26">
+        <v>-0.0254611150258602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02261727161717476</v>
+        <v>-0.1115602394703987</v>
       </c>
       <c r="C28">
-        <v>0.1348301003471778</v>
+        <v>0.2281833806468787</v>
       </c>
       <c r="D28">
-        <v>0.1773848696430787</v>
+        <v>0.01020083492888549</v>
       </c>
       <c r="E28">
-        <v>-0.1607262885607465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.007837224524030597</v>
+      </c>
+      <c r="F28">
+        <v>0.008751077946931267</v>
+      </c>
+      <c r="G28">
+        <v>-0.05415324827079739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006633306201836559</v>
+        <v>-0.01257615557232372</v>
       </c>
       <c r="C29">
-        <v>0.01658190332866778</v>
+        <v>-0.01913964334176596</v>
       </c>
       <c r="D29">
-        <v>-0.01103242408905779</v>
+        <v>-0.007187263408747609</v>
       </c>
       <c r="E29">
-        <v>-0.002945488748399827</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001718452732610967</v>
+      </c>
+      <c r="F29">
+        <v>0.006268912346949582</v>
+      </c>
+      <c r="G29">
+        <v>-0.03191312975524722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02362054332568677</v>
+        <v>-0.04055321199097647</v>
       </c>
       <c r="C30">
-        <v>0.02968954304965113</v>
+        <v>-0.0703071526513588</v>
       </c>
       <c r="D30">
-        <v>-0.004526137636133473</v>
+        <v>-0.02680925316386033</v>
       </c>
       <c r="E30">
-        <v>0.08166027217835022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02141539846465102</v>
+      </c>
+      <c r="F30">
+        <v>-0.04566267248690063</v>
+      </c>
+      <c r="G30">
+        <v>0.003251483921716393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.005830420328442478</v>
+        <v>-0.0442327664770456</v>
       </c>
       <c r="C31">
-        <v>0.0497036551893795</v>
+        <v>-0.03109150921188762</v>
       </c>
       <c r="D31">
-        <v>-0.02187285472300808</v>
+        <v>-0.002980958730215053</v>
       </c>
       <c r="E31">
-        <v>0.009854575733896975</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01011585556331385</v>
+      </c>
+      <c r="F31">
+        <v>0.03777116186331886</v>
+      </c>
+      <c r="G31">
+        <v>-0.02627893810788625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007958973086238587</v>
+        <v>-0.004673533000753777</v>
       </c>
       <c r="C32">
-        <v>0.001035023439924354</v>
+        <v>-0.03398794951430789</v>
       </c>
       <c r="D32">
-        <v>-0.03447801475583318</v>
+        <v>0.004682615015148474</v>
       </c>
       <c r="E32">
-        <v>-0.006778407385242304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01530300160786595</v>
+      </c>
+      <c r="F32">
+        <v>-0.07618663884873132</v>
+      </c>
+      <c r="G32">
+        <v>-0.05170710961368932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01139718654450329</v>
+        <v>-0.02987662166388918</v>
       </c>
       <c r="C33">
-        <v>0.02154682721827068</v>
+        <v>-0.0495470492785084</v>
       </c>
       <c r="D33">
-        <v>-0.001442856641098024</v>
+        <v>-0.01388113323991182</v>
       </c>
       <c r="E33">
-        <v>0.0317058164979177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02028196641427701</v>
+      </c>
+      <c r="F33">
+        <v>-0.02557007033284365</v>
+      </c>
+      <c r="G33">
+        <v>-0.0249309113497411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.005753186147933047</v>
+        <v>-0.04613014547208458</v>
       </c>
       <c r="C34">
-        <v>0.02871514630558024</v>
+        <v>-0.05412090213090547</v>
       </c>
       <c r="D34">
-        <v>-0.03369757326807913</v>
+        <v>0.005881131978026897</v>
       </c>
       <c r="E34">
-        <v>0.02361914002769349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01144712889409541</v>
+      </c>
+      <c r="F34">
+        <v>-0.02213133509026928</v>
+      </c>
+      <c r="G34">
+        <v>-0.02795083467893403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01127752156814447</v>
+        <v>-0.01166108823723632</v>
       </c>
       <c r="C36">
-        <v>0.01298102048641135</v>
+        <v>-0.006303603011452069</v>
       </c>
       <c r="D36">
-        <v>-0.001135068557111276</v>
+        <v>-0.01104723719201767</v>
       </c>
       <c r="E36">
-        <v>-0.002049316116750663</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0004923016189055993</v>
+      </c>
+      <c r="F36">
+        <v>0.0009092617468737414</v>
+      </c>
+      <c r="G36">
+        <v>-0.0196729448965429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.006513198688551085</v>
+        <v>-0.03493949247833227</v>
       </c>
       <c r="C38">
-        <v>0.02805889722145152</v>
+        <v>-0.02468656894126348</v>
       </c>
       <c r="D38">
-        <v>-0.01250701171980525</v>
+        <v>0.008234497323127882</v>
       </c>
       <c r="E38">
-        <v>0.01687080935705607</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003790671764641359</v>
+      </c>
+      <c r="F38">
+        <v>-0.001681277557032413</v>
+      </c>
+      <c r="G38">
+        <v>-0.02704584635998696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00536040464279466</v>
+        <v>-0.03289794759806948</v>
       </c>
       <c r="C39">
-        <v>0.01574993860609818</v>
+        <v>-0.08248462852382539</v>
       </c>
       <c r="D39">
-        <v>-0.05107267007505362</v>
+        <v>-0.01152940447526847</v>
       </c>
       <c r="E39">
-        <v>0.04604594698549593</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01203166918105815</v>
+      </c>
+      <c r="F39">
+        <v>-0.03921531757283654</v>
+      </c>
+      <c r="G39">
+        <v>-0.01871085253994563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01026571538054832</v>
+        <v>-0.02028983892463909</v>
       </c>
       <c r="C40">
-        <v>0.02249116072663206</v>
+        <v>-0.03042718681783191</v>
       </c>
       <c r="D40">
-        <v>-0.02357016897313014</v>
+        <v>-0.01282616085785745</v>
       </c>
       <c r="E40">
-        <v>0.03280947740747389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01645652916546649</v>
+      </c>
+      <c r="F40">
+        <v>-0.02129491785050636</v>
+      </c>
+      <c r="G40">
+        <v>-0.02154001766772592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.00472512527723104</v>
+        <v>-0.01203305263933454</v>
       </c>
       <c r="C41">
-        <v>0.01470617973974929</v>
+        <v>0.002054766394019809</v>
       </c>
       <c r="D41">
-        <v>0.007541848637492432</v>
+        <v>-0.003405502571970804</v>
       </c>
       <c r="E41">
-        <v>-0.00603114735430067</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003053684304232039</v>
+      </c>
+      <c r="F41">
+        <v>-0.0005814425923778309</v>
+      </c>
+      <c r="G41">
+        <v>-0.01309637496939294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08583405206158459</v>
+        <v>-0.03156603132320988</v>
       </c>
       <c r="C42">
-        <v>0.05037010338131567</v>
+        <v>-0.05437778487291601</v>
       </c>
       <c r="D42">
-        <v>-0.03265253491171134</v>
+        <v>-0.1015769821109364</v>
       </c>
       <c r="E42">
-        <v>0.2496727556905489</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.05779673708645224</v>
+      </c>
+      <c r="F42">
+        <v>0.1072492393836578</v>
+      </c>
+      <c r="G42">
+        <v>0.1938951540195231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005547532000155509</v>
+        <v>-0.0295262402795137</v>
       </c>
       <c r="C43">
-        <v>0.01430398606280567</v>
+        <v>-0.007047480974704365</v>
       </c>
       <c r="D43">
-        <v>0.009464994151024766</v>
+        <v>-0.003511695196483539</v>
       </c>
       <c r="E43">
-        <v>-0.004337739894017112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.002541068042505112</v>
+      </c>
+      <c r="F43">
+        <v>0.001328587524170724</v>
+      </c>
+      <c r="G43">
+        <v>-0.01738221035769819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002399844112874491</v>
+        <v>-0.01631139220734177</v>
       </c>
       <c r="C44">
-        <v>0.0006246802867368156</v>
+        <v>-0.04669755258282909</v>
       </c>
       <c r="D44">
-        <v>-0.01535498310522136</v>
+        <v>-0.006422366885029256</v>
       </c>
       <c r="E44">
-        <v>-0.001847598671167862</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01884271991975585</v>
+      </c>
+      <c r="F44">
+        <v>-0.02619706075629385</v>
+      </c>
+      <c r="G44">
+        <v>-0.03557231731531243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.009613554200463991</v>
+        <v>-0.002856973392937727</v>
       </c>
       <c r="C46">
-        <v>0.01007827463062347</v>
+        <v>-0.01684365687883829</v>
       </c>
       <c r="D46">
-        <v>-0.01391252875447651</v>
+        <v>-0.01161682320706404</v>
       </c>
       <c r="E46">
-        <v>0.01008042517900877</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0009121315520545368</v>
+      </c>
+      <c r="F46">
+        <v>0.01008421269715059</v>
+      </c>
+      <c r="G46">
+        <v>-0.02593127838794311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-8.018669454353086e-05</v>
+        <v>-0.07557755950061754</v>
       </c>
       <c r="C47">
-        <v>0.07182614168332888</v>
+        <v>-0.06264536806686546</v>
       </c>
       <c r="D47">
-        <v>-0.02107591545547481</v>
+        <v>0.005318915945472397</v>
       </c>
       <c r="E47">
-        <v>0.03024696477195689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01256969904287828</v>
+      </c>
+      <c r="F47">
+        <v>0.06299080952797885</v>
+      </c>
+      <c r="G47">
+        <v>-0.02225861157020605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002316274227478154</v>
+        <v>-0.01916284096808163</v>
       </c>
       <c r="C48">
-        <v>0.02486229630703128</v>
+        <v>-0.01014563213107252</v>
       </c>
       <c r="D48">
-        <v>-0.004428872417806894</v>
+        <v>-0.0008748354731463285</v>
       </c>
       <c r="E48">
-        <v>0.001763290928934449</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002403713587809419</v>
+      </c>
+      <c r="F48">
+        <v>0.01432937770534807</v>
+      </c>
+      <c r="G48">
+        <v>-0.02545618373579598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.00082705850247749</v>
+        <v>-0.07967348710177918</v>
       </c>
       <c r="C50">
-        <v>0.06247197132128335</v>
+        <v>-0.0638630367102085</v>
       </c>
       <c r="D50">
-        <v>-0.04133852743719408</v>
+        <v>0.004435822097938319</v>
       </c>
       <c r="E50">
-        <v>0.009888636525516118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01447122031498919</v>
+      </c>
+      <c r="F50">
+        <v>0.05878355257243174</v>
+      </c>
+      <c r="G50">
+        <v>-0.04221118904588909</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006051552560472111</v>
+        <v>-0.01309992363221585</v>
       </c>
       <c r="C51">
-        <v>0.002072274533462769</v>
+        <v>-0.02642584631117396</v>
       </c>
       <c r="D51">
-        <v>0.002924316380543798</v>
+        <v>-0.008594320510423371</v>
       </c>
       <c r="E51">
-        <v>-0.02262293013138877</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.005016431900353527</v>
+      </c>
+      <c r="F51">
+        <v>-0.03024192007355501</v>
+      </c>
+      <c r="G51">
+        <v>-0.04721253855377279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.00192465336180762</v>
+        <v>-0.09669479195960311</v>
       </c>
       <c r="C53">
-        <v>0.1012302062604746</v>
+        <v>-0.07560866830526432</v>
       </c>
       <c r="D53">
-        <v>-0.06004224961986667</v>
+        <v>0.006025160359416745</v>
       </c>
       <c r="E53">
-        <v>0.05296461602595144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03850988740772324</v>
+      </c>
+      <c r="F53">
+        <v>0.06673419521073294</v>
+      </c>
+      <c r="G53">
+        <v>-0.0241642602070353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002487096682791518</v>
+        <v>-0.0291304872961385</v>
       </c>
       <c r="C54">
-        <v>0.02420444015439301</v>
+        <v>-0.00434719240911862</v>
       </c>
       <c r="D54">
-        <v>0.002061851506681103</v>
+        <v>0.004199663738616832</v>
       </c>
       <c r="E54">
-        <v>-0.01222630099829503</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003508036807803222</v>
+      </c>
+      <c r="F54">
+        <v>0.001805203037960817</v>
+      </c>
+      <c r="G54">
+        <v>-0.0306120907069677</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>6.55474148214104e-05</v>
+        <v>-0.07360349415039066</v>
       </c>
       <c r="C55">
-        <v>0.07805028075825869</v>
+        <v>-0.07122406342861413</v>
       </c>
       <c r="D55">
-        <v>-0.05188094911018368</v>
+        <v>0.004915400011240577</v>
       </c>
       <c r="E55">
-        <v>0.05889567872290196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02624092990512588</v>
+      </c>
+      <c r="F55">
+        <v>0.06324618984833383</v>
+      </c>
+      <c r="G55">
+        <v>-0.01012010374585443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0006125606480253116</v>
+        <v>-0.1480154954866918</v>
       </c>
       <c r="C56">
-        <v>0.1432521514349508</v>
+        <v>-0.09829272881874036</v>
       </c>
       <c r="D56">
-        <v>-0.06688571464812489</v>
+        <v>0.01468669247436076</v>
       </c>
       <c r="E56">
-        <v>0.07841464490773704</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04313179909949863</v>
+      </c>
+      <c r="F56">
+        <v>0.10282337031868</v>
+      </c>
+      <c r="G56">
+        <v>-0.001195269110600967</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02330175150211567</v>
+        <v>-0.01255700260077207</v>
       </c>
       <c r="C57">
-        <v>0.03605261187085058</v>
+        <v>-0.01157127227790807</v>
       </c>
       <c r="D57">
-        <v>-0.01311856388764699</v>
+        <v>-0.02359036680004247</v>
       </c>
       <c r="E57">
-        <v>0.02324803609466714</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02711844249012378</v>
+      </c>
+      <c r="F57">
+        <v>-0.01600893438257759</v>
+      </c>
+      <c r="G57">
+        <v>-0.02224118277609035</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01015337787405162</v>
+        <v>-0.07590910009210527</v>
       </c>
       <c r="C58">
-        <v>0.09485560487724772</v>
+        <v>-0.06827658876730283</v>
       </c>
       <c r="D58">
-        <v>0.08326191691504771</v>
+        <v>-0.0192510662030164</v>
       </c>
       <c r="E58">
-        <v>0.1210558247833642</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9445775569305824</v>
+      </c>
+      <c r="F58">
+        <v>0.2284211996978288</v>
+      </c>
+      <c r="G58">
+        <v>-0.05350748267921922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.01845633745920341</v>
+        <v>-0.1488686895469443</v>
       </c>
       <c r="C59">
-        <v>0.1317541583033764</v>
+        <v>0.2161482171655725</v>
       </c>
       <c r="D59">
-        <v>0.1820292952633899</v>
+        <v>0.01707208500105531</v>
       </c>
       <c r="E59">
-        <v>-0.124529545526266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01446513513948579</v>
+      </c>
+      <c r="F59">
+        <v>-0.009051355087440871</v>
+      </c>
+      <c r="G59">
+        <v>-0.01667700817194049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.02712248434880417</v>
+        <v>-0.2950503562866963</v>
       </c>
       <c r="C60">
-        <v>0.1975572050592825</v>
+        <v>-0.0804496984482241</v>
       </c>
       <c r="D60">
-        <v>0.0331448057895419</v>
+        <v>-0.007074862228158513</v>
       </c>
       <c r="E60">
-        <v>0.05471442129580752</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01751874569060568</v>
+      </c>
+      <c r="F60">
+        <v>-0.3864554576621128</v>
+      </c>
+      <c r="G60">
+        <v>0.07547859978903551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002671471077112102</v>
+        <v>-0.03377250043727693</v>
       </c>
       <c r="C61">
-        <v>0.02784512001159182</v>
+        <v>-0.0627771360911797</v>
       </c>
       <c r="D61">
-        <v>-0.0370644103795232</v>
+        <v>-0.004851874350131953</v>
       </c>
       <c r="E61">
-        <v>0.04254559555681388</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.007616546758691548</v>
+      </c>
+      <c r="F61">
+        <v>-0.02408220665486458</v>
+      </c>
+      <c r="G61">
+        <v>-0.01965706210837135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007265903549369217</v>
+        <v>-0.01545945722137851</v>
       </c>
       <c r="C63">
-        <v>0.01234256213270633</v>
+        <v>-0.02539697655363143</v>
       </c>
       <c r="D63">
-        <v>-0.01413696797329858</v>
+        <v>-0.007612799737479432</v>
       </c>
       <c r="E63">
-        <v>0.006311335079179572</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01109434843878018</v>
+      </c>
+      <c r="F63">
+        <v>0.0120449364402819</v>
+      </c>
+      <c r="G63">
+        <v>-0.02995492998685755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.005371656880060572</v>
+        <v>-0.04741546499515824</v>
       </c>
       <c r="C64">
-        <v>0.04348435921616016</v>
+        <v>-0.0353827147940538</v>
       </c>
       <c r="D64">
-        <v>-0.02938945345327651</v>
+        <v>-0.00445070185926219</v>
       </c>
       <c r="E64">
-        <v>0.03670720253891792</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.009156900163338328</v>
+      </c>
+      <c r="F64">
+        <v>-0.01232071859507026</v>
+      </c>
+      <c r="G64">
+        <v>-0.01800129000603323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01708709079134074</v>
+        <v>-0.08131005155401139</v>
       </c>
       <c r="C65">
-        <v>0.06310323294407073</v>
+        <v>-0.06655353654678092</v>
       </c>
       <c r="D65">
-        <v>-0.04744453376195296</v>
+        <v>-0.01507085645760332</v>
       </c>
       <c r="E65">
-        <v>0.04578382183619707</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.00442841238016444</v>
+      </c>
+      <c r="F65">
+        <v>-0.04146200319636234</v>
+      </c>
+      <c r="G65">
+        <v>-0.009639899054226297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004994232517134605</v>
+        <v>-0.05439898626988546</v>
       </c>
       <c r="C66">
-        <v>0.034103288133217</v>
+        <v>-0.1147600612641397</v>
       </c>
       <c r="D66">
-        <v>-0.05160059513857812</v>
+        <v>-0.01083816237227186</v>
       </c>
       <c r="E66">
-        <v>0.07244906635742819</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01517155195134796</v>
+      </c>
+      <c r="F66">
+        <v>-0.0480016772383535</v>
+      </c>
+      <c r="G66">
+        <v>-0.01076539981502567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001910595017506387</v>
+        <v>-0.05889940444522736</v>
       </c>
       <c r="C67">
-        <v>0.04580356364656131</v>
+        <v>-0.02818159185562759</v>
       </c>
       <c r="D67">
-        <v>-0.008433887628604806</v>
+        <v>0.006899735049164759</v>
       </c>
       <c r="E67">
-        <v>0.01942397285505186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003979300223521525</v>
+      </c>
+      <c r="F67">
+        <v>0.001142575129703931</v>
+      </c>
+      <c r="G67">
+        <v>-0.02572729472899795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.03616743780025635</v>
+        <v>-0.1298306716656044</v>
       </c>
       <c r="C68">
-        <v>0.1166727973599569</v>
+        <v>0.2723655541206156</v>
       </c>
       <c r="D68">
-        <v>0.1811517292418729</v>
+        <v>-0.001159442198951997</v>
       </c>
       <c r="E68">
-        <v>-0.13893038456167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01834583150164126</v>
+      </c>
+      <c r="F68">
+        <v>0.01473100212490451</v>
+      </c>
+      <c r="G68">
+        <v>-0.01942773954812095</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00405755487714537</v>
+        <v>-0.07832812168454772</v>
       </c>
       <c r="C69">
-        <v>0.05961197003530865</v>
+        <v>-0.06261372172064331</v>
       </c>
       <c r="D69">
-        <v>-0.0227093714791704</v>
+        <v>0.009587265806078117</v>
       </c>
       <c r="E69">
-        <v>0.03049394643212242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03067035993753627</v>
+      </c>
+      <c r="F69">
+        <v>0.0421357351720874</v>
+      </c>
+      <c r="G69">
+        <v>-0.01764662191046709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02505306894351076</v>
+        <v>-0.1269892328895935</v>
       </c>
       <c r="C71">
-        <v>0.1099556188591842</v>
+        <v>0.2295718197928407</v>
       </c>
       <c r="D71">
-        <v>0.1555844442956123</v>
+        <v>0.007653816147170827</v>
       </c>
       <c r="E71">
-        <v>-0.135015846436475</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02438303600948478</v>
+      </c>
+      <c r="F71">
+        <v>0.01885799742598838</v>
+      </c>
+      <c r="G71">
+        <v>-0.03593640097691051</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002953047247724123</v>
+        <v>-0.08492711622710815</v>
       </c>
       <c r="C72">
-        <v>0.1099289944924812</v>
+        <v>-0.07633872579861647</v>
       </c>
       <c r="D72">
-        <v>-0.05993024309337152</v>
+        <v>0.008967305008464344</v>
       </c>
       <c r="E72">
-        <v>0.09681226100146423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01085102183655014</v>
+      </c>
+      <c r="F72">
+        <v>-0.03755461376928512</v>
+      </c>
+      <c r="G72">
+        <v>0.001201293397044022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.03946373468919794</v>
+        <v>-0.4048096522646559</v>
       </c>
       <c r="C73">
-        <v>0.2425423613669821</v>
+        <v>-0.09697557091459812</v>
       </c>
       <c r="D73">
-        <v>0.03305571407492147</v>
+        <v>-0.01151584952528595</v>
       </c>
       <c r="E73">
-        <v>0.1404238731655259</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06485286164522254</v>
+      </c>
+      <c r="F73">
+        <v>-0.535775634925951</v>
+      </c>
+      <c r="G73">
+        <v>0.1291439300694918</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.001714869042644863</v>
+        <v>-0.117397817674679</v>
       </c>
       <c r="C74">
-        <v>0.1360429343248937</v>
+        <v>-0.1151646403037757</v>
       </c>
       <c r="D74">
-        <v>-0.05583736657350059</v>
+        <v>0.01092384328678274</v>
       </c>
       <c r="E74">
-        <v>0.08273228711565278</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0370367713581826</v>
+      </c>
+      <c r="F74">
+        <v>0.07199512882607137</v>
+      </c>
+      <c r="G74">
+        <v>-0.01967286477749328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.003095924136298087</v>
+        <v>-0.2633075119382213</v>
       </c>
       <c r="C75">
-        <v>0.2788407304275149</v>
+        <v>-0.143101593769259</v>
       </c>
       <c r="D75">
-        <v>-0.09734790625805241</v>
+        <v>0.03230207152728314</v>
       </c>
       <c r="E75">
-        <v>0.1541068535179749</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07640087988369967</v>
+      </c>
+      <c r="F75">
+        <v>0.2166184502012143</v>
+      </c>
+      <c r="G75">
+        <v>0.02650189570594009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.006445865685854554</v>
+        <v>-0.1386844393203533</v>
       </c>
       <c r="C76">
-        <v>0.2342946306113243</v>
+        <v>-0.1197289841425912</v>
       </c>
       <c r="D76">
-        <v>-0.1090191967948421</v>
+        <v>0.02218166663204317</v>
       </c>
       <c r="E76">
-        <v>0.1278924389022219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.06715034005529434</v>
+      </c>
+      <c r="F76">
+        <v>0.1366775551326935</v>
+      </c>
+      <c r="G76">
+        <v>-0.008654172063020193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01182008951769229</v>
+        <v>-0.06178451367465147</v>
       </c>
       <c r="C77">
-        <v>0.03084293036828681</v>
+        <v>-0.06005735443027013</v>
       </c>
       <c r="D77">
-        <v>-0.0375761605189056</v>
+        <v>-0.01197116935031352</v>
       </c>
       <c r="E77">
-        <v>0.03642770342292376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04109424074200987</v>
+      </c>
+      <c r="F77">
+        <v>-0.02033635858967974</v>
+      </c>
+      <c r="G77">
+        <v>-0.04534959898553371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003595563188354199</v>
+        <v>-0.04112846841799799</v>
       </c>
       <c r="C78">
-        <v>0.03231025243320436</v>
+        <v>-0.05067298533095743</v>
       </c>
       <c r="D78">
-        <v>-0.03244852745508152</v>
+        <v>-0.005253483069177381</v>
       </c>
       <c r="E78">
-        <v>0.02933966706765569</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01762632753638242</v>
+      </c>
+      <c r="F78">
+        <v>-0.0415268597713894</v>
+      </c>
+      <c r="G78">
+        <v>-0.03145580900959855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01583840926370999</v>
+        <v>-0.06003678675610358</v>
       </c>
       <c r="C80">
-        <v>0.2450061572296894</v>
+        <v>-0.07282174665515417</v>
       </c>
       <c r="D80">
-        <v>-0.6517057471134898</v>
+        <v>-0.01369030233468982</v>
       </c>
       <c r="E80">
-        <v>-0.6703838819597119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.07061190388974913</v>
+      </c>
+      <c r="F80">
+        <v>-0.03766827022836879</v>
+      </c>
+      <c r="G80">
+        <v>-0.918750747167053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0009084870610905414</v>
+        <v>-0.1468237542441218</v>
       </c>
       <c r="C81">
-        <v>0.1861528613785791</v>
+        <v>-0.09279076905706637</v>
       </c>
       <c r="D81">
-        <v>-0.06996086651924238</v>
+        <v>0.0166098744418415</v>
       </c>
       <c r="E81">
-        <v>0.09100640288012388</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04744088513528241</v>
+      </c>
+      <c r="F81">
+        <v>0.1401153718599541</v>
+      </c>
+      <c r="G81">
+        <v>-0.0144197857116627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05238349118833945</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03247945688189151</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002960588911692622</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0140836627811537</v>
+      </c>
+      <c r="F82">
+        <v>0.003785617250360601</v>
+      </c>
+      <c r="G82">
+        <v>0.005402798527998368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006365538594600703</v>
+        <v>-0.02930677802544165</v>
       </c>
       <c r="C83">
-        <v>0.03478304235960084</v>
+        <v>-0.01950844856556779</v>
       </c>
       <c r="D83">
-        <v>-0.002517507379668574</v>
+        <v>-0.005040553192679405</v>
       </c>
       <c r="E83">
-        <v>0.01181845247036381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02673400491221791</v>
+      </c>
+      <c r="F83">
+        <v>-0.02244177380966811</v>
+      </c>
+      <c r="G83">
+        <v>-0.02541369723534773</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.005829883919669645</v>
+        <v>-0.2400900374098739</v>
       </c>
       <c r="C85">
-        <v>0.2389464180459785</v>
+        <v>-0.1479902167785684</v>
       </c>
       <c r="D85">
-        <v>-0.10595587232103</v>
+        <v>0.02101686277720753</v>
       </c>
       <c r="E85">
-        <v>0.1723176906004262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1206076032227209</v>
+      </c>
+      <c r="F85">
+        <v>0.2042507124205628</v>
+      </c>
+      <c r="G85">
+        <v>0.05182505184839074</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.004920405558810119</v>
+        <v>-0.01034451398596071</v>
       </c>
       <c r="C86">
-        <v>-0.0009012782407975508</v>
+        <v>-0.02403735196046397</v>
       </c>
       <c r="D86">
-        <v>-0.008740245331835445</v>
+        <v>-0.00955834040796886</v>
       </c>
       <c r="E86">
-        <v>0.001740787425759848</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02466040618681974</v>
+      </c>
+      <c r="F86">
+        <v>-0.01960483812901764</v>
+      </c>
+      <c r="G86">
+        <v>-0.05733785430482223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006206913175803854</v>
+        <v>-0.01534426633909681</v>
       </c>
       <c r="C87">
-        <v>0.0137699378465387</v>
+        <v>-0.02729701003734996</v>
       </c>
       <c r="D87">
-        <v>-0.01990235498519776</v>
+        <v>-0.0113452153274708</v>
       </c>
       <c r="E87">
-        <v>0.01867065908250066</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07745248624893483</v>
+      </c>
+      <c r="F87">
+        <v>-0.05966482631133816</v>
+      </c>
+      <c r="G87">
+        <v>-0.04116936884279849</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02538461941838603</v>
+        <v>-0.09156936706348508</v>
       </c>
       <c r="C88">
-        <v>0.04641058898240106</v>
+        <v>-0.05458805840710576</v>
       </c>
       <c r="D88">
-        <v>-0.002141942049007473</v>
+        <v>-0.0207556871946344</v>
       </c>
       <c r="E88">
-        <v>0.01453954904007024</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006482097538373137</v>
+      </c>
+      <c r="F88">
+        <v>0.001156244133361845</v>
+      </c>
+      <c r="G88">
+        <v>-0.02177281101239607</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.04772782814754224</v>
+        <v>-0.2151584742771867</v>
       </c>
       <c r="C89">
-        <v>0.2278338301610069</v>
+        <v>0.3716129702692802</v>
       </c>
       <c r="D89">
-        <v>0.3177301094908664</v>
+        <v>0.009139279322209565</v>
       </c>
       <c r="E89">
-        <v>-0.2202915664263557</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0161996544134401</v>
+      </c>
+      <c r="F89">
+        <v>0.03462256690009883</v>
+      </c>
+      <c r="G89">
+        <v>-0.02977510362183299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.03528047836643239</v>
+        <v>-0.181162786270145</v>
       </c>
       <c r="C90">
-        <v>0.1378908473160638</v>
+        <v>0.3380799052307341</v>
       </c>
       <c r="D90">
-        <v>0.2613844347460055</v>
+        <v>0.0119322748981043</v>
       </c>
       <c r="E90">
-        <v>-0.1835111096490931</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.003429735373076301</v>
+      </c>
+      <c r="F90">
+        <v>0.04658726685355911</v>
+      </c>
+      <c r="G90">
+        <v>-0.006079609199928424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.002394908515540987</v>
+        <v>-0.2109556017987173</v>
       </c>
       <c r="C91">
-        <v>0.260631641698276</v>
+        <v>-0.132973287766453</v>
       </c>
       <c r="D91">
-        <v>-0.1076155066521947</v>
+        <v>0.02528431772958956</v>
       </c>
       <c r="E91">
-        <v>0.1664339231636791</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08492650339947784</v>
+      </c>
+      <c r="F91">
+        <v>0.1919133459869093</v>
+      </c>
+      <c r="G91">
+        <v>0.006019869533876061</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.001005778404130959</v>
+        <v>-0.2040204188695849</v>
       </c>
       <c r="C92">
-        <v>0.2859190100201064</v>
+        <v>0.2730857744763013</v>
       </c>
       <c r="D92">
-        <v>0.2403978329306435</v>
+        <v>0.05485623236630455</v>
       </c>
       <c r="E92">
-        <v>-0.1496161977418785</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.009334217929257458</v>
+      </c>
+      <c r="F92">
+        <v>0.1350314510366835</v>
+      </c>
+      <c r="G92">
+        <v>-0.06134411769852576</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.03431427314411975</v>
+        <v>-0.2061581941693794</v>
       </c>
       <c r="C93">
-        <v>0.2015024978716854</v>
+        <v>0.3345489366213104</v>
       </c>
       <c r="D93">
-        <v>0.3045050695545038</v>
+        <v>0.01874773027234459</v>
       </c>
       <c r="E93">
-        <v>-0.1845470732105625</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01007245806534657</v>
+      </c>
+      <c r="F93">
+        <v>0.02035689983258923</v>
+      </c>
+      <c r="G93">
+        <v>-0.004196339103731122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.01740624745973341</v>
+        <v>-0.2819535957863343</v>
       </c>
       <c r="C94">
-        <v>0.2986805194270631</v>
+        <v>-0.1540501923261956</v>
       </c>
       <c r="D94">
-        <v>-0.06308559670324486</v>
+        <v>0.01431292126592929</v>
       </c>
       <c r="E94">
-        <v>0.1819843380967575</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1071493504975508</v>
+      </c>
+      <c r="F94">
+        <v>0.3893413219737537</v>
+      </c>
+      <c r="G94">
+        <v>0.1322306131982199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.006829951043492007</v>
+        <v>-0.0846682038776117</v>
       </c>
       <c r="C95">
-        <v>0.07640386646672097</v>
+        <v>-0.07477442149309914</v>
       </c>
       <c r="D95">
-        <v>0.0510259279101209</v>
+        <v>0.007941691641741654</v>
       </c>
       <c r="E95">
-        <v>0.07984817620199618</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07658340097360075</v>
+      </c>
+      <c r="F95">
+        <v>-0.1566037669866062</v>
+      </c>
+      <c r="G95">
+        <v>0.05592106968237136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.001630723604127768</v>
+        <v>-0.2110988622325601</v>
       </c>
       <c r="C98">
-        <v>0.1881351998007174</v>
+        <v>-0.04318655288217388</v>
       </c>
       <c r="D98">
-        <v>0.02919700220475947</v>
+        <v>0.01742180740446264</v>
       </c>
       <c r="E98">
-        <v>0.06787206835541032</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06789721301249192</v>
+      </c>
+      <c r="F98">
+        <v>-0.2421759965140766</v>
+      </c>
+      <c r="G98">
+        <v>0.0355972613857703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00779190705096006</v>
+        <v>-0.01395431147453826</v>
       </c>
       <c r="C101">
-        <v>0.02543573111582579</v>
+        <v>-0.02006252879212278</v>
       </c>
       <c r="D101">
-        <v>-0.004674840103720469</v>
+        <v>-0.008346499981881863</v>
       </c>
       <c r="E101">
-        <v>0.006197974714023628</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03627696555471071</v>
+      </c>
+      <c r="F101">
+        <v>0.02539530088127278</v>
+      </c>
+      <c r="G101">
+        <v>-0.03893508005168103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01184394766917147</v>
+        <v>-0.1257551419690617</v>
       </c>
       <c r="C102">
-        <v>0.1425177992917639</v>
+        <v>-0.08022945126605362</v>
       </c>
       <c r="D102">
-        <v>-0.04855815346685464</v>
+        <v>0.0005996164836210412</v>
       </c>
       <c r="E102">
-        <v>0.07775563608552874</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04362868958507964</v>
+      </c>
+      <c r="F102">
+        <v>0.06355573590147987</v>
+      </c>
+      <c r="G102">
+        <v>0.01174769038205327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001915987805674271</v>
+        <v>-0.004412531233683769</v>
       </c>
       <c r="C103">
-        <v>0.02436613331170303</v>
+        <v>-0.005341786904881309</v>
       </c>
       <c r="D103">
-        <v>-0.02265455099631657</v>
+        <v>-0.0006321627784841322</v>
       </c>
       <c r="E103">
-        <v>0.005288255855487078</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0006325511766064963</v>
+      </c>
+      <c r="F103">
+        <v>0.007849341471903021</v>
+      </c>
+      <c r="G103">
+        <v>-0.01665425093559754</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.987581973935085</v>
+        <v>-0.03972796288382738</v>
       </c>
       <c r="C104">
-        <v>-0.07593844794685164</v>
+        <v>0.04547799348406654</v>
       </c>
       <c r="D104">
-        <v>-0.03638937981159123</v>
+        <v>-0.9861280569291396</v>
       </c>
       <c r="E104">
-        <v>0.01013987011594886</v>
+        <v>0.04336965301094041</v>
+      </c>
+      <c r="F104">
+        <v>0.03868733471714807</v>
+      </c>
+      <c r="G104">
+        <v>0.003583963434299981</v>
       </c>
     </row>
   </sheetData>
